--- a/简历编码目录.xlsx
+++ b/简历编码目录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\代理工作\GenResumeLi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7E0C5-BC50-49F8-847B-D59937357EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView xWindow="28935" yWindow="825" windowWidth="28365" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PanelA_民族" sheetId="1" r:id="rId1"/>
@@ -16,8 +22,8 @@
     <sheet name="简历编号规则-待定" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PanelA_民族!$B$2:$F$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">投递轮次!$A$1:$C$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PanelA_民族!$B$2:$F$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,16 +34,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="281">
   <si>
     <t>简历编号</t>
   </si>
@@ -874,19 +881,21 @@
   </si>
   <si>
     <t>好=1</t>
+  </si>
+  <si>
+    <t>学历a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,345 +911,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1263,313 +957,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1854,24 +1265,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1911,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1931,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1991,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +1422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2051,7 +1462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +1482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2091,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +1522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2151,7 +1562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2171,7 +1582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +1622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +1642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +1662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2271,7 +1682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2311,7 +1722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2331,7 +1742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2391,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2411,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2431,7 +1842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2451,7 +1862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2471,7 +1882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2491,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2511,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2571,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2591,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2611,7 +2022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2631,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2651,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2671,7 +2082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2731,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2751,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2771,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2791,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2811,7 +2222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2851,7 +2262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2871,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2891,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2911,7 +2322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -2931,7 +2342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2951,7 +2362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -2971,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -2991,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -3011,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -3031,7 +2442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3051,7 +2462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -3071,7 +2482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3091,7 +2502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -3111,7 +2522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -3131,7 +2542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -3151,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -3171,7 +2582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -3191,7 +2602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3211,7 +2622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3231,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -3251,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -3271,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -3291,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -3311,7 +2722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -3331,7 +2742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3351,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -3371,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -3391,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -3411,7 +2822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -3431,7 +2842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -3451,7 +2862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -3471,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>99</v>
       </c>
@@ -3491,7 +2902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -3511,7 +2922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3531,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -3551,7 +2962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -3571,7 +2982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -3591,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -3611,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -3631,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -3651,7 +3062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -3671,7 +3082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -3691,7 +3102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -3711,7 +3122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>111</v>
       </c>
@@ -3731,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -3751,7 +3162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>113</v>
       </c>
@@ -3771,7 +3182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -3791,7 +3202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -3812,26 +3223,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A33"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3865,7 +3275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -3882,7 +3292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -3916,7 +3326,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3933,7 +3343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3950,7 +3360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -3967,7 +3377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -3984,7 +3394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -4001,7 +3411,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -4018,7 +3428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -4035,7 +3445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -4052,7 +3462,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -4069,7 +3479,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4086,7 +3496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -4103,7 +3513,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -4120,7 +3530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -4137,7 +3547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -4154,7 +3564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -4171,7 +3581,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -4188,7 +3598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -4205,7 +3615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4222,7 +3632,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -4239,7 +3649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -4256,7 +3666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -4273,7 +3683,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -4290,7 +3700,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -4307,7 +3717,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -4324,7 +3734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -4341,7 +3751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -4358,7 +3768,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -4375,7 +3785,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -4393,23 +3803,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4419,14 +3828,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -4443,7 +3852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -4460,7 +3869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -4477,7 +3886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -4494,7 +3903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -4511,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -4528,7 +3937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -4545,7 +3954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -4562,7 +3971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -4579,7 +3988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -4596,7 +4005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -4613,7 +4022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -4630,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -4647,7 +4056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -4664,7 +4073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -4681,7 +4090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4699,23 +4108,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4732,7 +4141,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -4749,7 +4158,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -4766,7 +4175,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -4783,7 +4192,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>180</v>
       </c>
@@ -4800,7 +4209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -4817,7 +4226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -4834,7 +4243,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -4851,7 +4260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -4869,23 +4278,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="104" topLeftCell="A28" workbookViewId="0">
+    <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4919,7 +4327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -4936,7 +4344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4953,7 +4361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -4970,7 +4378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -4987,7 +4395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -5004,7 +4412,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -5021,7 +4429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -5038,7 +4446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -5055,7 +4463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -5072,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -5089,7 +4497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -5106,7 +4514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -5123,7 +4531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -5140,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -5157,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -5174,7 +4582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -5191,7 +4599,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -5208,7 +4616,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>204</v>
       </c>
@@ -5225,7 +4633,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -5242,7 +4650,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>206</v>
       </c>
@@ -5259,7 +4667,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -5276,7 +4684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -5293,7 +4701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -5310,7 +4718,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -5327,7 +4735,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>212</v>
       </c>
@@ -5344,7 +4752,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -5361,7 +4769,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -5378,7 +4786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -5395,7 +4803,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -5412,7 +4820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -5429,7 +4837,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>218</v>
       </c>
@@ -5446,7 +4854,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -5463,7 +4871,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>221</v>
       </c>
@@ -5480,7 +4888,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -5497,7 +4905,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -5514,7 +4922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -5531,7 +4939,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -5548,7 +4956,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -5565,7 +4973,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -5582,7 +4990,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>228</v>
       </c>
@@ -5599,7 +5007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>230</v>
       </c>
@@ -5616,7 +5024,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>231</v>
       </c>
@@ -5633,7 +5041,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -5650,7 +5058,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -5667,7 +5075,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -5684,7 +5092,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>235</v>
       </c>
@@ -5701,7 +5109,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -5718,7 +5126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>237</v>
       </c>
@@ -5735,7 +5143,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -5752,7 +5160,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -5769,7 +5177,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -5786,7 +5194,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -5803,7 +5211,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -5820,7 +5228,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -5837,7 +5245,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>245</v>
       </c>
@@ -5855,31 +5263,30 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -5890,7 +5297,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5901,7 +5308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5912,7 +5319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5923,7 +5330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5934,7 +5341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5945,7 +5352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5956,7 +5363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5967,7 +5374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5978,7 +5385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5989,7 +5396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6000,7 +5407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6011,7 +5418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6022,7 +5429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6033,7 +5440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6044,7 +5451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6055,7 +5462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6066,7 +5473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6077,7 +5484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6088,7 +5495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6099,7 +5506,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6110,7 +5517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6121,7 +5528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6132,7 +5539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6143,7 +5550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6154,7 +5561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6165,7 +5572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6176,7 +5583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6187,7 +5594,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6198,7 +5605,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6209,7 +5616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6220,7 +5627,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2</v>
       </c>
@@ -6231,7 +5638,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2</v>
       </c>
@@ -6242,7 +5649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
@@ -6253,7 +5660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6264,7 +5671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2</v>
       </c>
@@ -6275,7 +5682,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -6286,7 +5693,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6297,7 +5704,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -6308,7 +5715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6319,7 +5726,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2</v>
       </c>
@@ -6330,7 +5737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2</v>
       </c>
@@ -6341,7 +5748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2</v>
       </c>
@@ -6352,7 +5759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2</v>
       </c>
@@ -6363,7 +5770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2</v>
       </c>
@@ -6374,7 +5781,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2</v>
       </c>
@@ -6385,7 +5792,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2</v>
       </c>
@@ -6396,7 +5803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2</v>
       </c>
@@ -6407,7 +5814,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2</v>
       </c>
@@ -6418,7 +5825,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>2</v>
       </c>
@@ -6429,7 +5836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>2</v>
       </c>
@@ -6440,7 +5847,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2</v>
       </c>
@@ -6451,7 +5858,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2</v>
       </c>
@@ -6462,7 +5869,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6473,7 +5880,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>3</v>
       </c>
@@ -6484,7 +5891,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>3</v>
       </c>
@@ -6495,7 +5902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>3</v>
       </c>
@@ -6506,7 +5913,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>3</v>
       </c>
@@ -6517,7 +5924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>3</v>
       </c>
@@ -6528,7 +5935,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>3</v>
       </c>
@@ -6539,7 +5946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6550,7 +5957,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>3</v>
       </c>
@@ -6561,7 +5968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>3</v>
       </c>
@@ -6572,7 +5979,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6583,7 +5990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>3</v>
       </c>
@@ -6594,7 +6001,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>3</v>
       </c>
@@ -6605,7 +6012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>3</v>
       </c>
@@ -6616,7 +6023,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>3</v>
       </c>
@@ -6627,7 +6034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>3</v>
       </c>
@@ -6638,7 +6045,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>3</v>
       </c>
@@ -6649,7 +6056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>3</v>
       </c>
@@ -6660,7 +6067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>3</v>
       </c>
@@ -6671,7 +6078,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6682,7 +6089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6693,7 +6100,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6704,7 +6111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6715,7 +6122,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>3</v>
       </c>
@@ -6726,7 +6133,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>3</v>
       </c>
@@ -6737,7 +6144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6748,7 +6155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6759,7 +6166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6770,7 +6177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6781,7 +6188,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6792,7 +6199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>4</v>
       </c>
@@ -6803,7 +6210,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6814,7 +6221,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6825,7 +6232,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>4</v>
       </c>
@@ -6836,7 +6243,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>4</v>
       </c>
@@ -6847,7 +6254,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>4</v>
       </c>
@@ -6858,7 +6265,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>4</v>
       </c>
@@ -6869,7 +6276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>4</v>
       </c>
@@ -6880,7 +6287,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>4</v>
       </c>
@@ -6891,7 +6298,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>4</v>
       </c>
@@ -6902,7 +6309,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>4</v>
       </c>
@@ -6913,7 +6320,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6924,7 +6331,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>4</v>
       </c>
@@ -6935,7 +6342,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>4</v>
       </c>
@@ -6946,7 +6353,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>4</v>
       </c>
@@ -6957,7 +6364,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>4</v>
       </c>
@@ -6968,7 +6375,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>4</v>
       </c>
@@ -6979,7 +6386,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>4</v>
       </c>
@@ -6990,7 +6397,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7001,7 +6408,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7012,7 +6419,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7023,7 +6430,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7035,35 +6442,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C105" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C105" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="9" width="15.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="9" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7074,7 +6478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7088,7 +6492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -7114,7 +6518,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7137,7 +6541,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -7166,7 +6570,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -7178,7 +6582,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>